--- a/data/dataThongtinhanghoaSua_case1.xlsx
+++ b/data/dataThongtinhanghoaSua_case1.xlsx
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,7 +461,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -484,7 +484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -503,8 +503,9 @@
       <c r="F2" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -523,8 +524,9 @@
       <c r="F3" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -543,8 +545,9 @@
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -563,8 +566,9 @@
       <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -583,8 +587,9 @@
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -603,8 +608,9 @@
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -623,8 +629,9 @@
       <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -643,8 +650,9 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -663,8 +671,9 @@
       <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -683,8 +692,9 @@
       <c r="F11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -703,26 +713,28 @@
       <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
